--- a/biology/Mycologie/Peronosporales/Peronosporales.xlsx
+++ b/biology/Mycologie/Peronosporales/Peronosporales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Peronosporales sont un ordre de champignons oomycètes, dont de nombreuses espèces sont des agents phytopathogènes, notamment des mildious.
 Certaines espèces sont responsables de maladies de plantes ayant une grande importance économique. On peut citer notamment le mildiou de la pomme de terre (Phytophthora infestans, la moisissure bleue du tabac (Peronospora hyoscyami), la mort subite du chêne (Phytophthora ramorum) ou la pourriture du cœur de l'ananas et le dépérissement terminal de l'eucalyptus dues à Phytophthora cinnamomi.
@@ -512,9 +524,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (28 février 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (28 février 2019) :
 famille des Crypticolaceae
 famille des Ectrogellaceae
 famille des Myzocytiopsidaceae
@@ -525,11 +539,11 @@
 famille des Pythiogetonaceae
 famille des Salisapiliaceae
 famille des Sirolpidiaceae
-Selon ITIS      (28 février 2019)[3] :
+Selon ITIS      (28 février 2019) :
 famille des Albuginaceae
 famille des Peronosporaceae
 famille des Pythiaceae
-Selon NCBI  (28 février 2019)[4] :
+Selon NCBI  (28 février 2019) :
 famille des Peronosporaceae
 famille des Salisapiliaceae Hulvey, Nigrelli, Telle, Lamour &amp; Thines 2010
 Peronosporales incertae sedis
